--- a/Output/Descriptives/Pct_miss_quarter.xlsx
+++ b/Output/Descriptives/Pct_miss_quarter.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,10 +404,10 @@
         <v>52.65241488519399</v>
       </c>
       <c r="D2">
-        <v>50.31397174254317</v>
+        <v>50.39246467817896</v>
       </c>
       <c r="E2">
-        <v>50.85403726708074</v>
+        <v>51.00931677018633</v>
       </c>
       <c r="F2">
         <v>57.37577639751553</v>
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>49.72288202692003</v>
+        <v>49.80205859065717</v>
       </c>
       <c r="D3">
         <v>55.02354788069074</v>
@@ -452,7 +452,7 @@
         <v>49.72288202692003</v>
       </c>
       <c r="D4">
-        <v>50.15698587127159</v>
+        <v>50.23547880690737</v>
       </c>
       <c r="E4">
         <v>50.54347826086957</v>
@@ -521,112 +521,112 @@
         </is>
       </c>
       <c r="C7">
-        <v>49.80205859065717</v>
+        <v>52.88994457640538</v>
       </c>
       <c r="D7">
-        <v>50.31397174254317</v>
+        <v>50.70643642072213</v>
       </c>
       <c r="E7">
-        <v>50.46583850931678</v>
+        <v>51.31987577639752</v>
       </c>
       <c r="F7">
-        <v>50.15527950310559</v>
+        <v>57.45341614906832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C8">
-        <v>4.592240696753761</v>
+        <v>52.65241488519399</v>
       </c>
       <c r="D8">
-        <v>0.5494505494505495</v>
+        <v>50.39246467817896</v>
       </c>
       <c r="E8">
-        <v>0.4658385093167702</v>
+        <v>51.00931677018633</v>
       </c>
       <c r="F8">
-        <v>2.562111801242236</v>
+        <v>57.37577639751553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C9">
-        <v>5.463182897862233</v>
+        <v>49.80205859065717</v>
       </c>
       <c r="D9">
-        <v>9.497645211930926</v>
+        <v>55.02354788069074</v>
       </c>
       <c r="E9">
-        <v>15.99378881987578</v>
+        <v>53.33850931677019</v>
       </c>
       <c r="F9">
-        <v>19.56521739130435</v>
+        <v>51.47515527950311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.504354711005542</v>
+        <v>49.72288202692003</v>
       </c>
       <c r="D10">
-        <v>0.5494505494505495</v>
+        <v>50.23547880690737</v>
       </c>
       <c r="E10">
-        <v>1.24223602484472</v>
+        <v>50.54347826086957</v>
       </c>
       <c r="F10">
-        <v>3.183229813664596</v>
+        <v>50.31055900621118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S02-Cerro Navia</t>
+          <t>S01-Cerrillos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C11">
-        <v>4.275534441805226</v>
+        <v>52.88994457640538</v>
       </c>
       <c r="D11">
-        <v>1.569858712715855</v>
+        <v>50.70643642072213</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>51.31987577639752</v>
       </c>
       <c r="F11">
-        <v>7.996894409937888</v>
+        <v>57.45341614906832</v>
       </c>
     </row>
     <row r="12">
@@ -637,20 +637,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C12">
-        <v>4.671417260490895</v>
+        <v>4.592240696753761</v>
       </c>
       <c r="D12">
-        <v>1.569858712715855</v>
+        <v>1.883830455259027</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="F12">
-        <v>7.996894409937888</v>
+        <v>2.562111801242236</v>
       </c>
     </row>
     <row r="13">
@@ -661,458 +661,458 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C13">
-        <v>7.521773555027712</v>
+        <v>5.463182897862233</v>
       </c>
       <c r="D13">
-        <v>5.180533751962323</v>
+        <v>9.497645211930926</v>
       </c>
       <c r="E13">
-        <v>3.105590062111801</v>
+        <v>15.99378881987578</v>
       </c>
       <c r="F13">
-        <v>8.30745341614907</v>
+        <v>19.56521739130435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C14">
-        <v>3.642121931908155</v>
+        <v>1.504354711005542</v>
       </c>
       <c r="D14">
-        <v>0.7849293563579277</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E14">
         <v>1.319875776397516</v>
       </c>
       <c r="F14">
-        <v>3.571428571428571</v>
+        <v>3.183229813664596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C15">
-        <v>4.354711005542359</v>
+        <v>4.275534441805226</v>
       </c>
       <c r="D15">
-        <v>15.77708006279435</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="E15">
-        <v>11.18012422360249</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>13.19875776397516</v>
+        <v>7.996894409937888</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.791765637371338</v>
+        <v>4.671417260490895</v>
       </c>
       <c r="D16">
-        <v>2.433281004709576</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="E16">
-        <v>0.15527950310559</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>3.571428571428571</v>
+        <v>7.996894409937888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.395882818685669</v>
+        <v>11.4806017418844</v>
       </c>
       <c r="D17">
-        <v>0.6279434850863422</v>
+        <v>6.907378335949764</v>
       </c>
       <c r="E17">
-        <v>0.07763975155279502</v>
+        <v>4.425465838509317</v>
       </c>
       <c r="F17">
-        <v>5.978260869565218</v>
+        <v>9.86024844720497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C18">
-        <v>3.800475059382423</v>
+        <v>4.592240696753761</v>
       </c>
       <c r="D18">
-        <v>1.648351648351648</v>
+        <v>1.883830455259027</v>
       </c>
       <c r="E18">
-        <v>0.07763975155279502</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="F18">
-        <v>5.900621118012422</v>
+        <v>2.562111801242236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S03-El Bosque</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C19">
-        <v>7.363420427553444</v>
+        <v>5.463182897862233</v>
       </c>
       <c r="D19">
-        <v>7.6138147566719</v>
+        <v>9.497645211930926</v>
       </c>
       <c r="E19">
-        <v>1.708074534161491</v>
+        <v>15.99378881987578</v>
       </c>
       <c r="F19">
-        <v>10.48136645962733</v>
+        <v>19.56521739130435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C20">
-        <v>19.39825811559778</v>
+        <v>1.504354711005542</v>
       </c>
       <c r="D20">
-        <v>14.75667189952904</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E20">
-        <v>19.79813664596273</v>
+        <v>1.319875776397516</v>
       </c>
       <c r="F20">
-        <v>22.98136645962733</v>
+        <v>3.183229813664596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S02-Cerro Navia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C21">
-        <v>19.95249406175772</v>
+        <v>11.4806017418844</v>
       </c>
       <c r="D21">
-        <v>31.71114599686029</v>
+        <v>6.907378335949764</v>
       </c>
       <c r="E21">
-        <v>29.7360248447205</v>
+        <v>4.425465838509317</v>
       </c>
       <c r="F21">
-        <v>29.27018633540373</v>
+        <v>9.86024844720497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C22">
-        <v>15.67695961995249</v>
+        <v>3.642121931908155</v>
       </c>
       <c r="D22">
-        <v>15.62009419152276</v>
+        <v>0.8634222919937204</v>
       </c>
       <c r="E22">
-        <v>19.48757763975155</v>
+        <v>1.319875776397516</v>
       </c>
       <c r="F22">
-        <v>21.97204968944099</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C23">
-        <v>15.51860649247823</v>
+        <v>4.433887569279493</v>
       </c>
       <c r="D23">
-        <v>16.01255886970173</v>
+        <v>15.77708006279435</v>
       </c>
       <c r="E23">
-        <v>19.09937888198758</v>
+        <v>11.18012422360249</v>
       </c>
       <c r="F23">
-        <v>22.04968944099379</v>
+        <v>13.19875776397516</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C24">
-        <v>16.1520190023753</v>
+        <v>0.791765637371338</v>
       </c>
       <c r="D24">
-        <v>15.69858712715856</v>
+        <v>2.590266875981162</v>
       </c>
       <c r="E24">
-        <v>24.53416149068323</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="F24">
-        <v>22.04968944099379</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S04-Independencia</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C25">
-        <v>15.12272367379256</v>
+        <v>0.395882818685669</v>
       </c>
       <c r="D25">
-        <v>14.91365777080063</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="E25">
-        <v>19.33229813664596</v>
+        <v>0.07763975155279502</v>
       </c>
       <c r="F25">
-        <v>22.04968944099379</v>
+        <v>5.978260869565218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C26">
-        <v>20.19002375296912</v>
+        <v>3.800475059382423</v>
       </c>
       <c r="D26">
-        <v>13.50078492935636</v>
+        <v>1.648351648351648</v>
       </c>
       <c r="E26">
-        <v>8.928571428571429</v>
+        <v>0.07763975155279502</v>
       </c>
       <c r="F26">
-        <v>4.270186335403727</v>
+        <v>5.900621118012422</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C27">
-        <v>1.900237529691212</v>
+        <v>10.60965954077593</v>
       </c>
       <c r="D27">
-        <v>15.69858712715856</v>
+        <v>8.084772370486656</v>
       </c>
       <c r="E27">
-        <v>27.17391304347826</v>
+        <v>2.950310559006211</v>
       </c>
       <c r="F27">
-        <v>14.51863354037267</v>
+        <v>11.49068322981366</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C28">
-        <v>1.979414093428345</v>
+        <v>3.642121931908155</v>
       </c>
       <c r="D28">
-        <v>1.962323390894819</v>
+        <v>0.8634222919937204</v>
       </c>
       <c r="E28">
-        <v>1.08695652173913</v>
+        <v>1.319875776397516</v>
       </c>
       <c r="F28">
-        <v>1.940993788819876</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C29">
-        <v>1.741884402216944</v>
+        <v>4.433887569279493</v>
       </c>
       <c r="D29">
-        <v>0.5494505494505495</v>
+        <v>15.77708006279435</v>
       </c>
       <c r="E29">
-        <v>2.717391304347826</v>
+        <v>11.18012422360249</v>
       </c>
       <c r="F29">
-        <v>6.444099378881988</v>
+        <v>13.19875776397516</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C30">
-        <v>6.413301662707839</v>
+        <v>0.791765637371338</v>
       </c>
       <c r="D30">
-        <v>10.75353218210361</v>
+        <v>2.590266875981162</v>
       </c>
       <c r="E30">
-        <v>7.608695652173914</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="F30">
-        <v>13.89751552795031</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S05-La Florida</t>
+          <t>S03-El Bosque</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C31">
-        <v>2.058590657165479</v>
+        <v>10.60965954077593</v>
       </c>
       <c r="D31">
-        <v>0.3924646781789639</v>
+        <v>8.084772370486656</v>
       </c>
       <c r="E31">
-        <v>2.872670807453416</v>
+        <v>2.950310559006211</v>
       </c>
       <c r="F31">
-        <v>5.279503105590062</v>
+        <v>11.49068322981366</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="C32">
-        <v>4.829770387965162</v>
+        <v>19.47743467933492</v>
       </c>
       <c r="D32">
-        <v>0.3924646781789639</v>
+        <v>14.75667189952904</v>
       </c>
       <c r="E32">
-        <v>2.096273291925466</v>
+        <v>19.79813664596273</v>
       </c>
       <c r="F32">
-        <v>2.639751552795031</v>
+        <v>22.98136645962733</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C33">
-        <v>4.275534441805226</v>
+        <v>20.19002375296912</v>
       </c>
       <c r="D33">
-        <v>6.122448979591836</v>
+        <v>31.71114599686029</v>
       </c>
       <c r="E33">
-        <v>14.20807453416149</v>
+        <v>29.7360248447205</v>
       </c>
       <c r="F33">
-        <v>13.12111801242236</v>
+        <v>29.27018633540373</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1169,22 +1169,22 @@
         </is>
       </c>
       <c r="C34">
-        <v>2.850356294536817</v>
+        <v>15.75613618368963</v>
       </c>
       <c r="D34">
-        <v>0.7064364207221351</v>
+        <v>15.69858712715856</v>
       </c>
       <c r="E34">
-        <v>1.319875776397516</v>
+        <v>19.48757763975155</v>
       </c>
       <c r="F34">
-        <v>2.018633540372671</v>
+        <v>21.97204968944099</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C35">
-        <v>3.95882818685669</v>
+        <v>15.51860649247823</v>
       </c>
       <c r="D35">
-        <v>11.53846153846154</v>
+        <v>16.01255886970173</v>
       </c>
       <c r="E35">
-        <v>7.142857142857142</v>
+        <v>19.09937888198758</v>
       </c>
       <c r="F35">
-        <v>8.928571428571429</v>
+        <v>22.04968944099379</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C36">
-        <v>7.521773555027712</v>
+        <v>16.1520190023753</v>
       </c>
       <c r="D36">
-        <v>3.453689167974882</v>
+        <v>15.69858712715856</v>
       </c>
       <c r="E36">
-        <v>8.385093167701864</v>
+        <v>24.53416149068323</v>
       </c>
       <c r="F36">
-        <v>13.04347826086956</v>
+        <v>22.04968944099379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S06-Las Condes</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1241,598 +1241,598 @@
         </is>
       </c>
       <c r="C37">
-        <v>15.12272367379256</v>
+        <v>19.95249406175772</v>
       </c>
       <c r="D37">
-        <v>14.91365777080063</v>
+        <v>15.07064364207221</v>
       </c>
       <c r="E37">
-        <v>12.42236024844721</v>
+        <v>20.03105590062112</v>
       </c>
       <c r="F37">
-        <v>15.06211180124224</v>
+        <v>23.60248447204969</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C38">
-        <v>4.671417260490895</v>
+        <v>19.47743467933492</v>
       </c>
       <c r="D38">
-        <v>1.098901098901099</v>
+        <v>14.75667189952904</v>
       </c>
       <c r="E38">
-        <v>3.105590062111801</v>
+        <v>19.79813664596273</v>
       </c>
       <c r="F38">
-        <v>7.142857142857142</v>
+        <v>22.98136645962733</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C39">
-        <v>8.471892319873318</v>
+        <v>20.19002375296912</v>
       </c>
       <c r="D39">
-        <v>8.948194662480377</v>
+        <v>31.71114599686029</v>
       </c>
       <c r="E39">
-        <v>12.81055900621118</v>
+        <v>29.7360248447205</v>
       </c>
       <c r="F39">
-        <v>22.04968944099379</v>
+        <v>29.27018633540373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C40">
-        <v>1.583531274742676</v>
+        <v>15.75613618368963</v>
       </c>
       <c r="D40">
-        <v>0.2354788069073783</v>
+        <v>15.69858712715856</v>
       </c>
       <c r="E40">
-        <v>0.4658385093167702</v>
+        <v>19.48757763975155</v>
       </c>
       <c r="F40">
-        <v>0.8540372670807453</v>
+        <v>21.97204968944099</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S04-Independencia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.5542359461599367</v>
+        <v>19.95249406175772</v>
       </c>
       <c r="D41">
-        <v>0.5494505494505495</v>
+        <v>15.07064364207221</v>
       </c>
       <c r="E41">
-        <v>0.3105590062111801</v>
+        <v>20.03105590062112</v>
       </c>
       <c r="F41">
-        <v>6.677018633540373</v>
+        <v>23.60248447204969</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.870942201108472</v>
+        <v>20.19002375296912</v>
       </c>
       <c r="D42">
-        <v>0.3924646781789639</v>
+        <v>13.57927786499215</v>
       </c>
       <c r="E42">
-        <v>0.4658385093167702</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="F42">
-        <v>6.832298136645963</v>
+        <v>4.270186335403727</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S07-Parque O'Higgins</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C43">
-        <v>7.521773555027712</v>
+        <v>2.058590657165479</v>
       </c>
       <c r="D43">
-        <v>2.433281004709576</v>
+        <v>15.69858712715856</v>
       </c>
       <c r="E43">
-        <v>0.7763975155279503</v>
+        <v>27.17391304347826</v>
       </c>
       <c r="F43">
-        <v>6.599378881987578</v>
+        <v>14.51863354037267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C44">
-        <v>11.08471892319873</v>
+        <v>1.979414093428345</v>
       </c>
       <c r="D44">
-        <v>1.805337519623234</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="E44">
-        <v>1.164596273291925</v>
+        <v>1.397515527950311</v>
       </c>
       <c r="F44">
-        <v>2.639751552795031</v>
+        <v>1.940993788819876</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C45">
-        <v>7.996832937450514</v>
+        <v>1.741884402216944</v>
       </c>
       <c r="D45">
-        <v>6.200941915227629</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E45">
-        <v>9.549689440993788</v>
+        <v>2.717391304347826</v>
       </c>
       <c r="F45">
-        <v>26.47515527950311</v>
+        <v>6.444099378881988</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C46">
-        <v>1.187648456057007</v>
+        <v>6.413301662707839</v>
       </c>
       <c r="D46">
-        <v>2.354788069073784</v>
+        <v>10.75353218210361</v>
       </c>
       <c r="E46">
-        <v>0.3881987577639752</v>
+        <v>7.608695652173914</v>
       </c>
       <c r="F46">
-        <v>1.24223602484472</v>
+        <v>13.89751552795031</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C47">
-        <v>7.205067300079176</v>
+        <v>20.42755344418052</v>
       </c>
       <c r="D47">
-        <v>5.965463108320251</v>
+        <v>13.97174254317111</v>
       </c>
       <c r="E47">
-        <v>7.065217391304348</v>
+        <v>11.02484472049689</v>
       </c>
       <c r="F47">
-        <v>4.580745341614907</v>
+        <v>7.996894409937888</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C48">
-        <v>13.14330958036421</v>
+        <v>20.19002375296912</v>
       </c>
       <c r="D48">
-        <v>12.48037676609105</v>
+        <v>13.57927786499215</v>
       </c>
       <c r="E48">
-        <v>16.53726708074534</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="F48">
-        <v>19.02173913043478</v>
+        <v>4.270186335403727</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S08-Pudahuel</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.6334125098970704</v>
+        <v>2.058590657165479</v>
       </c>
       <c r="D49">
-        <v>0.4709576138147566</v>
+        <v>15.69858712715856</v>
       </c>
       <c r="E49">
-        <v>1.08695652173913</v>
+        <v>27.17391304347826</v>
       </c>
       <c r="F49">
-        <v>7.919254658385093</v>
+        <v>14.51863354037267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C50">
-        <v>2.850356294536817</v>
+        <v>1.979414093428345</v>
       </c>
       <c r="D50">
-        <v>1.491365777080063</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="E50">
-        <v>0.4658385093167702</v>
+        <v>1.397515527950311</v>
       </c>
       <c r="F50">
-        <v>4.658385093167702</v>
+        <v>1.940993788819876</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S05-La Florida</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>20.42755344418052</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>13.97174254317111</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>11.02484472049689</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>7.996894409937888</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.4750593824228029</v>
+        <v>4.829770387965162</v>
       </c>
       <c r="D52">
-        <v>1.491365777080063</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="E52">
-        <v>0.3105590062111801</v>
+        <v>2.096273291925466</v>
       </c>
       <c r="F52">
-        <v>3.260869565217391</v>
+        <v>2.639751552795031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone</t>
         </is>
       </c>
       <c r="C53">
-        <v>15.51860649247823</v>
+        <v>4.829770387965162</v>
       </c>
       <c r="D53">
-        <v>8.241758241758241</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="E53">
-        <v>8.385093167701864</v>
+        <v>14.20807453416149</v>
       </c>
       <c r="F53">
-        <v>18.7888198757764</v>
+        <v>13.43167701863354</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10</t>
         </is>
       </c>
       <c r="C54">
-        <v>7.838479809976246</v>
+        <v>2.850356294536817</v>
       </c>
       <c r="D54">
-        <v>0.5494505494505495</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="E54">
-        <v>0.2329192546583851</v>
+        <v>1.397515527950311</v>
       </c>
       <c r="F54">
-        <v>8.152173913043478</v>
+        <v>2.096273291925466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S09-Puente Alto</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="C55">
-        <v>11.0055423594616</v>
+        <v>3.95882818685669</v>
       </c>
       <c r="D55">
-        <v>8.084772370486656</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="E55">
-        <v>0.7763975155279503</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="F55">
-        <v>8.074534161490684</v>
+        <v>8.928571428571429</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C56">
-        <v>20.11084718923199</v>
+        <v>7.521773555027712</v>
       </c>
       <c r="D56">
-        <v>21.66405023547881</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="E56">
-        <v>15.45031055900621</v>
+        <v>8.385093167701864</v>
       </c>
       <c r="F56">
-        <v>19.40993788819876</v>
+        <v>13.04347826086956</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C57">
-        <v>27.71179730799683</v>
+        <v>18.92319873317498</v>
       </c>
       <c r="D57">
-        <v>29.98430141287284</v>
+        <v>15.46310832025118</v>
       </c>
       <c r="E57">
-        <v>30.90062111801242</v>
+        <v>13.50931677018634</v>
       </c>
       <c r="F57">
-        <v>33.92857142857143</v>
+        <v>16.38198757763975</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C58">
-        <v>21.37767220902613</v>
+        <v>4.829770387965162</v>
       </c>
       <c r="D58">
-        <v>20.40816326530612</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="E58">
-        <v>14.90683229813665</v>
+        <v>2.096273291925466</v>
       </c>
       <c r="F58">
-        <v>17.46894409937888</v>
+        <v>2.639751552795031</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C59">
-        <v>14.48931116389549</v>
+        <v>4.829770387965162</v>
       </c>
       <c r="D59">
-        <v>15.54160125588697</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="E59">
-        <v>13.27639751552795</v>
+        <v>14.20807453416149</v>
       </c>
       <c r="F59">
-        <v>15.13975155279503</v>
+        <v>13.43167701863354</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C60">
-        <v>14.72684085510689</v>
+        <v>2.850356294536817</v>
       </c>
       <c r="D60">
-        <v>15.54160125588697</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="E60">
-        <v>13.89751552795031</v>
+        <v>1.397515527950311</v>
       </c>
       <c r="F60">
-        <v>15.06211180124224</v>
+        <v>2.096273291925466</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S10-Talagante</t>
+          <t>S06-Las Condes</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C61">
-        <v>15.67695961995249</v>
+        <v>18.92319873317498</v>
       </c>
       <c r="D61">
-        <v>21.35007849293564</v>
+        <v>15.46310832025118</v>
       </c>
       <c r="E61">
-        <v>16.30434782608696</v>
+        <v>13.50931677018634</v>
       </c>
       <c r="F61">
-        <v>15.45031055900621</v>
+        <v>16.38198757763975</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="C62">
-        <v>4.433887569279493</v>
+        <v>4.671417260490895</v>
       </c>
       <c r="D62">
-        <v>1.255886970172684</v>
+        <v>1.177394034536892</v>
       </c>
       <c r="E62">
-        <v>0.7763975155279503</v>
+        <v>3.183229813664596</v>
       </c>
       <c r="F62">
-        <v>2.484472049689441</v>
+        <v>7.375776397515528</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="C63">
-        <v>52.65241488519399</v>
+        <v>8.551068883610451</v>
       </c>
       <c r="D63">
-        <v>54.86656200941915</v>
+        <v>8.948194662480377</v>
       </c>
       <c r="E63">
-        <v>57.45341614906832</v>
+        <v>12.81055900621118</v>
       </c>
       <c r="F63">
-        <v>57.22049689440993</v>
+        <v>22.04968944099379</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="C64">
-        <v>50.5938242280285</v>
+        <v>1.583531274742676</v>
       </c>
       <c r="D64">
-        <v>54.86656200941915</v>
+        <v>0.4709576138147566</v>
       </c>
       <c r="E64">
-        <v>57.22049689440993</v>
+        <v>0.4658385093167702</v>
       </c>
       <c r="F64">
-        <v>57.22049689440993</v>
+        <v>0.8540372670807453</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1913,22 +1913,22 @@
         </is>
       </c>
       <c r="C65">
-        <v>50.5938242280285</v>
+        <v>0.5542359461599367</v>
       </c>
       <c r="D65">
-        <v>53.61067503924647</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E65">
-        <v>57.22049689440993</v>
+        <v>0.3105590062111801</v>
       </c>
       <c r="F65">
-        <v>57.14285714285714</v>
+        <v>6.677018633540373</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1937,22 +1937,22 @@
         </is>
       </c>
       <c r="C66">
-        <v>50.91053048297704</v>
+        <v>0.870942201108472</v>
       </c>
       <c r="D66">
-        <v>54.00313971742543</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="E66">
-        <v>58.07453416149069</v>
+        <v>0.4658385093167702</v>
       </c>
       <c r="F66">
-        <v>57.14285714285714</v>
+        <v>6.832298136645963</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S11-Quilicura</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1961,160 +1961,1312 @@
         </is>
       </c>
       <c r="C67">
-        <v>53.28582739509105</v>
+        <v>11.4806017418844</v>
       </c>
       <c r="D67">
-        <v>60.36106750392464</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="E67">
-        <v>60.86956521739131</v>
+        <v>3.959627329192546</v>
       </c>
       <c r="F67">
-        <v>57.22049689440993</v>
+        <v>13.66459627329193</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PM2.5</t>
+          <t>PM2.5 (log)</t>
         </is>
       </c>
       <c r="C68">
-        <v>13.49600518246599</v>
+        <v>4.671417260490895</v>
       </c>
       <c r="D68">
-        <v>9.783074068788354</v>
+        <v>1.177394034536892</v>
       </c>
       <c r="E68">
-        <v>9.49322416713721</v>
+        <v>3.183229813664596</v>
       </c>
       <c r="F68">
-        <v>11.79418407679277</v>
+        <v>7.375776397515528</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ozone</t>
+          <t>Ozone (log)</t>
         </is>
       </c>
       <c r="C69">
-        <v>25.68199812855395</v>
+        <v>8.551068883610451</v>
       </c>
       <c r="D69">
-        <v>30.34822320536606</v>
+        <v>8.948194662480377</v>
       </c>
       <c r="E69">
-        <v>32.94042913608131</v>
+        <v>12.81055900621118</v>
       </c>
       <c r="F69">
-        <v>34.62027103331451</v>
+        <v>22.04968944099379</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PM10</t>
+          <t>PM10 (log)</t>
         </is>
       </c>
       <c r="C70">
-        <v>13.43122435759016</v>
+        <v>1.583531274742676</v>
       </c>
       <c r="D70">
-        <v>13.70772085057799</v>
+        <v>0.4709576138147566</v>
       </c>
       <c r="E70">
-        <v>13.37521174477696</v>
+        <v>0.4658385093167702</v>
       </c>
       <c r="F70">
-        <v>14.82213438735178</v>
+        <v>0.8540372670807453</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S07-Parque O'Higgins</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Wind Speed (log)</t>
         </is>
       </c>
       <c r="C71">
-        <v>14.9067875908731</v>
+        <v>11.4806017418844</v>
       </c>
       <c r="D71">
-        <v>14.97074354217211</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="E71">
-        <v>15.04799548277809</v>
+        <v>3.959627329192546</v>
       </c>
       <c r="F71">
-        <v>18.5347261434218</v>
+        <v>13.66459627329193</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>S08-Pudahuel</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>PM2.5</t>
         </is>
       </c>
       <c r="C72">
-        <v>16.23119556611243</v>
+        <v>11.16389548693587</v>
       </c>
       <c r="D72">
-        <v>15.21335807050093</v>
+        <v>2.511773940345369</v>
       </c>
       <c r="E72">
-        <v>17.04545454545454</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="F72">
-        <v>20.09457933370977</v>
+        <v>2.639751552795031</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>8.076009501187649</v>
+      </c>
+      <c r="D73">
+        <v>6.200941915227629</v>
+      </c>
+      <c r="E73">
+        <v>9.549689440993788</v>
+      </c>
+      <c r="F73">
+        <v>26.47515527950311</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>1.187648456057007</v>
+      </c>
+      <c r="D74">
+        <v>2.511773940345369</v>
+      </c>
+      <c r="E74">
+        <v>0.4658385093167702</v>
+      </c>
+      <c r="F74">
+        <v>1.24223602484472</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>7.205067300079176</v>
+      </c>
+      <c r="D75">
+        <v>5.965463108320251</v>
+      </c>
+      <c r="E75">
+        <v>7.065217391304348</v>
+      </c>
+      <c r="F75">
+        <v>4.580745341614907</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>13.14330958036421</v>
+      </c>
+      <c r="D76">
+        <v>12.48037676609105</v>
+      </c>
+      <c r="E76">
+        <v>16.53726708074534</v>
+      </c>
+      <c r="F76">
+        <v>19.02173913043478</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>11.40142517814727</v>
+      </c>
+      <c r="D77">
+        <v>2.747252747252747</v>
+      </c>
+      <c r="E77">
+        <v>2.329192546583851</v>
+      </c>
+      <c r="F77">
+        <v>9.161490683229815</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>11.16389548693587</v>
+      </c>
+      <c r="D78">
+        <v>2.511773940345369</v>
+      </c>
+      <c r="E78">
+        <v>1.552795031055901</v>
+      </c>
+      <c r="F78">
+        <v>2.639751552795031</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>8.076009501187649</v>
+      </c>
+      <c r="D79">
+        <v>6.200941915227629</v>
+      </c>
+      <c r="E79">
+        <v>9.549689440993788</v>
+      </c>
+      <c r="F79">
+        <v>26.47515527950311</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>1.187648456057007</v>
+      </c>
+      <c r="D80">
+        <v>2.511773940345369</v>
+      </c>
+      <c r="E80">
+        <v>0.4658385093167702</v>
+      </c>
+      <c r="F80">
+        <v>1.24223602484472</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>S08-Pudahuel</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>11.40142517814727</v>
+      </c>
+      <c r="D81">
+        <v>2.747252747252747</v>
+      </c>
+      <c r="E81">
+        <v>2.329192546583851</v>
+      </c>
+      <c r="F81">
+        <v>9.161490683229815</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>2.850356294536817</v>
+      </c>
+      <c r="D82">
+        <v>1.648351648351648</v>
+      </c>
+      <c r="E82">
+        <v>0.8540372670807453</v>
+      </c>
+      <c r="F82">
+        <v>4.891304347826087</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.4750593824228029</v>
+      </c>
+      <c r="D84">
+        <v>1.726844583987441</v>
+      </c>
+      <c r="E84">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="F84">
+        <v>3.493788819875776</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>15.51860649247823</v>
+      </c>
+      <c r="D85">
+        <v>8.241758241758241</v>
+      </c>
+      <c r="E85">
+        <v>8.385093167701864</v>
+      </c>
+      <c r="F85">
+        <v>18.7888198757764</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>7.838479809976246</v>
+      </c>
+      <c r="D86">
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="E86">
+        <v>0.2329192546583851</v>
+      </c>
+      <c r="F86">
+        <v>8.152173913043478</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>12.58907363420428</v>
+      </c>
+      <c r="D87">
+        <v>9.733124018838305</v>
+      </c>
+      <c r="E87">
+        <v>1.940993788819876</v>
+      </c>
+      <c r="F87">
+        <v>9.937888198757763</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>2.850356294536817</v>
+      </c>
+      <c r="D88">
+        <v>1.648351648351648</v>
+      </c>
+      <c r="E88">
+        <v>0.8540372670807453</v>
+      </c>
+      <c r="F88">
+        <v>4.891304347826087</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0.4750593824228029</v>
+      </c>
+      <c r="D90">
+        <v>1.726844583987441</v>
+      </c>
+      <c r="E90">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="F90">
+        <v>3.493788819875776</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>S09-Puente Alto</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>12.58907363420428</v>
+      </c>
+      <c r="D91">
+        <v>9.733124018838305</v>
+      </c>
+      <c r="E91">
+        <v>1.940993788819876</v>
+      </c>
+      <c r="F91">
+        <v>9.937888198757763</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>20.11084718923199</v>
+      </c>
+      <c r="D92">
+        <v>21.66405023547881</v>
+      </c>
+      <c r="E92">
+        <v>15.527950310559</v>
+      </c>
+      <c r="F92">
+        <v>19.56521739130435</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>27.71179730799683</v>
+      </c>
+      <c r="D93">
+        <v>29.98430141287284</v>
+      </c>
+      <c r="E93">
+        <v>30.90062111801242</v>
+      </c>
+      <c r="F93">
+        <v>33.92857142857143</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>21.45684877276326</v>
+      </c>
+      <c r="D94">
+        <v>20.56514913657771</v>
+      </c>
+      <c r="E94">
+        <v>15.21739130434783</v>
+      </c>
+      <c r="F94">
+        <v>17.62422360248447</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>14.48931116389549</v>
+      </c>
+      <c r="D95">
+        <v>15.54160125588697</v>
+      </c>
+      <c r="E95">
+        <v>13.27639751552795</v>
+      </c>
+      <c r="F95">
+        <v>15.13975155279503</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>14.72684085510689</v>
+      </c>
+      <c r="D96">
+        <v>15.54160125588697</v>
+      </c>
+      <c r="E96">
+        <v>13.89751552795031</v>
+      </c>
+      <c r="F96">
+        <v>15.06211180124224</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>23.04038004750594</v>
+      </c>
+      <c r="D97">
+        <v>29.98430141287284</v>
+      </c>
+      <c r="E97">
+        <v>24.37888198757764</v>
+      </c>
+      <c r="F97">
+        <v>26.5527950310559</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>20.11084718923199</v>
+      </c>
+      <c r="D98">
+        <v>21.66405023547881</v>
+      </c>
+      <c r="E98">
+        <v>15.527950310559</v>
+      </c>
+      <c r="F98">
+        <v>19.56521739130435</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>27.71179730799683</v>
+      </c>
+      <c r="D99">
+        <v>29.98430141287284</v>
+      </c>
+      <c r="E99">
+        <v>30.90062111801242</v>
+      </c>
+      <c r="F99">
+        <v>33.92857142857143</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>21.45684877276326</v>
+      </c>
+      <c r="D100">
+        <v>20.56514913657771</v>
+      </c>
+      <c r="E100">
+        <v>15.21739130434783</v>
+      </c>
+      <c r="F100">
+        <v>17.62422360248447</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>S10-Talagante</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>23.04038004750594</v>
+      </c>
+      <c r="D101">
+        <v>29.98430141287284</v>
+      </c>
+      <c r="E101">
+        <v>24.37888198757764</v>
+      </c>
+      <c r="F101">
+        <v>26.5527950310559</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>4.433887569279493</v>
+      </c>
+      <c r="D102">
+        <v>1.491365777080063</v>
+      </c>
+      <c r="E102">
+        <v>0.7763975155279503</v>
+      </c>
+      <c r="F102">
+        <v>2.484472049689441</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>52.65241488519399</v>
+      </c>
+      <c r="D103">
+        <v>54.86656200941915</v>
+      </c>
+      <c r="E103">
+        <v>57.45341614906832</v>
+      </c>
+      <c r="F103">
+        <v>57.22049689440993</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>50.5938242280285</v>
+      </c>
+      <c r="D104">
+        <v>55.02354788069074</v>
+      </c>
+      <c r="E104">
+        <v>57.22049689440993</v>
+      </c>
+      <c r="F104">
+        <v>57.22049689440993</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>50.5938242280285</v>
+      </c>
+      <c r="D105">
+        <v>53.61067503924647</v>
+      </c>
+      <c r="E105">
+        <v>57.22049689440993</v>
+      </c>
+      <c r="F105">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>50.91053048297704</v>
+      </c>
+      <c r="D106">
+        <v>54.00313971742543</v>
+      </c>
+      <c r="E106">
+        <v>58.07453416149069</v>
+      </c>
+      <c r="F106">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>54.47347585114806</v>
+      </c>
+      <c r="D107">
+        <v>60.51805337519623</v>
+      </c>
+      <c r="E107">
+        <v>61.25776397515528</v>
+      </c>
+      <c r="F107">
+        <v>57.99689440993789</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>4.433887569279493</v>
+      </c>
+      <c r="D108">
+        <v>1.491365777080063</v>
+      </c>
+      <c r="E108">
+        <v>0.7763975155279503</v>
+      </c>
+      <c r="F108">
+        <v>2.484472049689441</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>52.65241488519399</v>
+      </c>
+      <c r="D109">
+        <v>54.86656200941915</v>
+      </c>
+      <c r="E109">
+        <v>57.45341614906832</v>
+      </c>
+      <c r="F109">
+        <v>57.22049689440993</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>50.5938242280285</v>
+      </c>
+      <c r="D110">
+        <v>55.02354788069074</v>
+      </c>
+      <c r="E110">
+        <v>57.22049689440993</v>
+      </c>
+      <c r="F110">
+        <v>57.22049689440993</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>S11-Quilicura</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>54.47347585114806</v>
+      </c>
+      <c r="D111">
+        <v>60.51805337519623</v>
+      </c>
+      <c r="E111">
+        <v>61.25776397515528</v>
+      </c>
+      <c r="F111">
+        <v>57.99689440993789</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PM2.5</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>13.51040092132729</v>
+      </c>
+      <c r="D112">
+        <v>10.06850292564578</v>
+      </c>
+      <c r="E112">
+        <v>9.6485036702428</v>
+      </c>
+      <c r="F112">
+        <v>11.85064935064935</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ozone</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>25.79716403944433</v>
+      </c>
+      <c r="D113">
+        <v>30.34822320536606</v>
+      </c>
+      <c r="E113">
+        <v>32.94042913608131</v>
+      </c>
+      <c r="F113">
+        <v>34.6485036702428</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>13.44562009645145</v>
+      </c>
+      <c r="D114">
+        <v>13.86470672184958</v>
+      </c>
+      <c r="E114">
+        <v>13.47402597402597</v>
+      </c>
+      <c r="F114">
+        <v>14.86448334274421</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>14.9067875908731</v>
+      </c>
+      <c r="D115">
+        <v>14.97074354217211</v>
+      </c>
+      <c r="E115">
+        <v>15.04799548277809</v>
+      </c>
+      <c r="F115">
+        <v>18.5347261434218</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>16.23119556611243</v>
+      </c>
+      <c r="D116">
+        <v>15.21335807050093</v>
+      </c>
+      <c r="E116">
+        <v>17.04545454545454</v>
+      </c>
+      <c r="F116">
+        <v>20.09457933370977</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Wind Speed</t>
         </is>
       </c>
-      <c r="C73">
-        <v>16.82861872885626</v>
-      </c>
-      <c r="D73">
-        <v>16.91165976880263</v>
-      </c>
-      <c r="E73">
-        <v>15.42913608130999</v>
-      </c>
-      <c r="F73">
-        <v>18.78176171654433</v>
+      <c r="C117">
+        <v>22.47894623191535</v>
+      </c>
+      <c r="D117">
+        <v>19.69459112316255</v>
+      </c>
+      <c r="E117">
+        <v>17.92066629023151</v>
+      </c>
+      <c r="F117">
+        <v>22.19085262563523</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PM2.5 (log)</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>13.51040092132729</v>
+      </c>
+      <c r="D118">
+        <v>10.06850292564578</v>
+      </c>
+      <c r="E118">
+        <v>9.6485036702428</v>
+      </c>
+      <c r="F118">
+        <v>11.85064935064935</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ozone (log)</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>25.79716403944433</v>
+      </c>
+      <c r="D119">
+        <v>30.34822320536606</v>
+      </c>
+      <c r="E119">
+        <v>32.94042913608131</v>
+      </c>
+      <c r="F119">
+        <v>34.6485036702428</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PM10 (log)</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>13.44562009645145</v>
+      </c>
+      <c r="D120">
+        <v>13.86470672184958</v>
+      </c>
+      <c r="E120">
+        <v>13.47402597402597</v>
+      </c>
+      <c r="F120">
+        <v>14.86448334274421</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wind Speed (log)</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>22.47894623191535</v>
+      </c>
+      <c r="D121">
+        <v>19.69459112316255</v>
+      </c>
+      <c r="E121">
+        <v>17.92066629023151</v>
+      </c>
+      <c r="F121">
+        <v>22.19085262563523</v>
       </c>
     </row>
   </sheetData>
